--- a/Euxoloti 1.2/Hardware/BOMs/core 1-2.xlsx
+++ b/Euxoloti 1.2/Hardware/BOMs/core 1-2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="127">
   <si>
     <t>Qty</t>
   </si>
@@ -357,9 +357,6 @@
     <t>STM32F103RCBT6</t>
   </si>
   <si>
-    <t>JP-MM,Maple Mini</t>
-  </si>
-  <si>
     <t>RNF14FTD470RCT-ND</t>
   </si>
   <si>
@@ -394,6 +391,15 @@
   </si>
   <si>
     <t>505-FKP21000/100/2.5</t>
+  </si>
+  <si>
+    <t>JP-MM</t>
+  </si>
+  <si>
+    <t>Maple Mini (IC4)</t>
+  </si>
+  <si>
+    <t>1X20; pitch: 2,54mm; low profile</t>
   </si>
 </sst>
 </file>
@@ -477,8 +483,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -593,7 +603,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="99">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -641,6 +651,8 @@
     <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -688,6 +700,8 @@
     <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1020,7 +1034,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1028,7 +1042,7 @@
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="40.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" customWidth="1"/>
     <col min="7" max="7" width="40.83203125" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
@@ -1054,7 +1068,7 @@
         <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1071,7 +1085,7 @@
         <v>93</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16">
@@ -1088,7 +1102,7 @@
         <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -1235,7 +1249,7 @@
         <v>88</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1252,7 +1266,7 @@
         <v>88</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1272,7 +1286,7 @@
         <v>80</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1403,7 +1417,7 @@
         <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1426,7 +1440,7 @@
         <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1492,25 +1506,43 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>52</v>
@@ -1661,7 +1693,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
         <v>98</v>
@@ -1678,7 +1710,7 @@
         <v>100</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F44" t="s">
         <v>102</v>
@@ -1753,7 +1785,7 @@
     </row>
     <row r="54" spans="1:5" s="5" customFormat="1" ht="18">
       <c r="A54" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
